--- a/static/download/admin/Reporte de Ventas.xlsx
+++ b/static/download/admin/Reporte de Ventas.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
   <si>
     <t>ICT Consulting</t>
   </si>
   <si>
-    <t>Fecha: 2014-11-19</t>
+    <t>Fecha: 2014-11-20</t>
   </si>
   <si>
     <t>REPORTE DE VENTAS</t>
   </si>
   <si>
-    <t>DEL DIA 2014-11-19 0:00:00 AL DIA 2014-11-19 23:59:59</t>
+    <t>DEL DIA 2014-11-20 0:00:00 AL DIA 2014-11-20 23:59:59</t>
   </si>
   <si>
     <t>Ticket</t>
@@ -43,7 +43,16 @@
     <t>Deposito</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -251,7 +260,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reporte de ventas del dia" displayName="Reporte de ventas del dia" ref="B10:F70" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Reporte de ventas del dia" displayName="Reporte de ventas del dia" ref="B10:F91" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" name="Column2" dataDxfId="0"/>
@@ -548,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:F70"/>
+  <dimension ref="A4:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,98 +614,98 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="3">
-        <v>1909</v>
+        <v>2261</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>41962.3568518519</v>
+        <v>41963.3763310185</v>
       </c>
       <c r="E11" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="3">
-        <v>1910</v>
+        <v>2262</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>41962.3569097222</v>
+        <v>41963.3765509259</v>
       </c>
       <c r="E12" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="3">
-        <v>1911</v>
+        <v>2263</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>41962.3569791667</v>
+        <v>41963.3775</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="3">
-        <v>1912</v>
+        <v>2264</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>41962.3571180556</v>
+        <v>41963.3776967593</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
       </c>
       <c r="F14" s="5">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="3">
-        <v>1913</v>
+        <v>2265</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4">
-        <v>41962.3795833333</v>
+        <v>41963.3777893518</v>
       </c>
       <c r="E15" s="5">
         <v>3</v>
       </c>
       <c r="F15" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="3">
-        <v>1914</v>
+        <v>2266</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4">
-        <v>41962.3797222222</v>
+        <v>41963.3778587963</v>
       </c>
       <c r="E16" s="5">
         <v>3</v>
@@ -707,81 +716,81 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3">
-        <v>2203</v>
+        <v>2267</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4">
-        <v>41962.4640393518</v>
+        <v>41963.3779166667</v>
       </c>
       <c r="E17" s="5">
         <v>3</v>
       </c>
       <c r="F17" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="3">
-        <v>2204</v>
+        <v>2268</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4">
-        <v>41962.4642824074</v>
+        <v>41963.3782986111</v>
       </c>
       <c r="E18" s="5">
         <v>3</v>
       </c>
       <c r="F18" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3">
-        <v>2205</v>
+        <v>2269</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4">
-        <v>41962.464375</v>
+        <v>41963.3784259259</v>
       </c>
       <c r="E19" s="5">
         <v>3</v>
       </c>
       <c r="F19" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="3">
-        <v>2206</v>
+        <v>2270</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4">
-        <v>41962.4644212963</v>
+        <v>41963.3784490741</v>
       </c>
       <c r="E20" s="5">
         <v>3</v>
       </c>
       <c r="F20" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3">
-        <v>2207</v>
+        <v>2271</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4">
-        <v>41962.4644907407</v>
+        <v>41963.3785300926</v>
       </c>
       <c r="E21" s="5">
         <v>3</v>
@@ -792,13 +801,13 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3">
-        <v>2208</v>
+        <v>2272</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4">
-        <v>41962.4650925926</v>
+        <v>41963.3786342593</v>
       </c>
       <c r="E22" s="5">
         <v>3</v>
@@ -809,30 +818,30 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="3">
-        <v>2209</v>
+        <v>2273</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="4">
-        <v>41962.4653240741</v>
+        <v>41963.3786689815</v>
       </c>
       <c r="E23" s="5">
         <v>3</v>
       </c>
       <c r="F23" s="5">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="3">
-        <v>2210</v>
+        <v>2274</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4">
-        <v>41962.4656944444</v>
+        <v>41963.3787615741</v>
       </c>
       <c r="E24" s="5">
         <v>3</v>
@@ -843,30 +852,30 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="3">
-        <v>2211</v>
+        <v>2275</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="4">
-        <v>41962.4657407407</v>
+        <v>41963.378900463</v>
       </c>
       <c r="E25" s="5">
         <v>3</v>
       </c>
       <c r="F25" s="5">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="3">
-        <v>2212</v>
+        <v>2276</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4">
-        <v>41962.4658796296</v>
+        <v>41963.3793518519</v>
       </c>
       <c r="E26" s="5">
         <v>3</v>
@@ -877,98 +886,98 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="3">
-        <v>2213</v>
+        <v>2277</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="4">
-        <v>41962.4660069444</v>
+        <v>41963.3794212963</v>
       </c>
       <c r="E27" s="5">
         <v>3</v>
       </c>
       <c r="F27" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="3">
-        <v>2214</v>
+        <v>2278</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="4">
-        <v>41962.466099537</v>
+        <v>41963.3796064815</v>
       </c>
       <c r="E28" s="5">
         <v>3</v>
       </c>
       <c r="F28" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="3">
-        <v>2215</v>
+        <v>2279</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="4">
-        <v>41962.4661805556</v>
+        <v>41963.3797569444</v>
       </c>
       <c r="E29" s="5">
         <v>3</v>
       </c>
       <c r="F29" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="3">
-        <v>2216</v>
+        <v>2280</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="4">
-        <v>41962.4662615741</v>
+        <v>41963.3798958333</v>
       </c>
       <c r="E30" s="5">
         <v>3</v>
       </c>
       <c r="F30" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="3">
-        <v>2217</v>
+        <v>2281</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="4">
-        <v>41962.4663888889</v>
+        <v>41963.3805671296</v>
       </c>
       <c r="E31" s="5">
         <v>3</v>
       </c>
       <c r="F31" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="3">
-        <v>2218</v>
+        <v>2282</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="4">
-        <v>41962.4664467593</v>
+        <v>41963.387025463</v>
       </c>
       <c r="E32" s="5">
         <v>3</v>
@@ -979,30 +988,30 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="3">
-        <v>2219</v>
+        <v>2283</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4">
-        <v>41962.4665856482</v>
+        <v>41963.4107291667</v>
       </c>
       <c r="E33" s="5">
         <v>3</v>
       </c>
       <c r="F33" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="3">
-        <v>2220</v>
+        <v>2284</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="4">
-        <v>41962.4666666667</v>
+        <v>41963.4109143519</v>
       </c>
       <c r="E34" s="5">
         <v>3</v>
@@ -1013,30 +1022,30 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="3">
-        <v>2221</v>
+        <v>2285</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4">
-        <v>41962.4667361111</v>
+        <v>41963.4111574074</v>
       </c>
       <c r="E35" s="5">
         <v>3</v>
       </c>
       <c r="F35" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="3">
-        <v>2222</v>
+        <v>2286</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4">
-        <v>41962.4667824074</v>
+        <v>41963.4113194444</v>
       </c>
       <c r="E36" s="5">
         <v>3</v>
@@ -1047,13 +1056,13 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="3">
-        <v>2223</v>
+        <v>2287</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="4">
-        <v>41962.4668171296</v>
+        <v>41963.4113888889</v>
       </c>
       <c r="E37" s="5">
         <v>3</v>
@@ -1064,30 +1073,30 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="3">
-        <v>2224</v>
+        <v>2288</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="4">
-        <v>41962.4668518519</v>
+        <v>41963.4114583333</v>
       </c>
       <c r="E38" s="5">
         <v>3</v>
       </c>
       <c r="F38" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="3">
-        <v>2225</v>
+        <v>2289</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="4">
-        <v>41962.4669444444</v>
+        <v>41963.4115393519</v>
       </c>
       <c r="E39" s="5">
         <v>3</v>
@@ -1098,30 +1107,30 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="3">
-        <v>2226</v>
+        <v>2290</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4">
-        <v>41962.4671180556</v>
+        <v>41963.4116087963</v>
       </c>
       <c r="E40" s="5">
         <v>3</v>
       </c>
       <c r="F40" s="5">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="3">
-        <v>2227</v>
+        <v>2291</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="4">
-        <v>41962.4674421296</v>
+        <v>41963.4117939815</v>
       </c>
       <c r="E41" s="5">
         <v>3</v>
@@ -1132,47 +1141,47 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="3">
-        <v>2228</v>
+        <v>2292</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42" s="4">
-        <v>41962.4675694444</v>
+        <v>41963.4137847222</v>
       </c>
       <c r="E42" s="5">
         <v>3</v>
       </c>
       <c r="F42" s="5">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="3">
-        <v>2229</v>
+        <v>2293</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4">
-        <v>41962.4680671296</v>
+        <v>41963.4141435185</v>
       </c>
       <c r="E43" s="5">
         <v>3</v>
       </c>
       <c r="F43" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="3">
-        <v>2230</v>
+        <v>2294</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44" s="4">
-        <v>41962.4682638889</v>
+        <v>41963.4143171296</v>
       </c>
       <c r="E44" s="5">
         <v>3</v>
@@ -1183,64 +1192,64 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="3">
-        <v>2231</v>
+        <v>2295</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D45" s="4">
-        <v>41962.4684953704</v>
+        <v>41963.4143981481</v>
       </c>
       <c r="E45" s="5">
         <v>3</v>
       </c>
       <c r="F45" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="3">
-        <v>2232</v>
+        <v>2296</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46" s="4">
-        <v>41962.4685648148</v>
+        <v>41963.4144560185</v>
       </c>
       <c r="E46" s="5">
         <v>3</v>
       </c>
       <c r="F46" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="3">
-        <v>2233</v>
+        <v>2297</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47" s="4">
-        <v>41962.4686458333</v>
+        <v>41963.4145138889</v>
       </c>
       <c r="E47" s="5">
         <v>3</v>
       </c>
       <c r="F47" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="3">
-        <v>2234</v>
+        <v>2298</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D48" s="4">
-        <v>41962.4687037037</v>
+        <v>41963.4145717593</v>
       </c>
       <c r="E48" s="5">
         <v>3</v>
@@ -1251,98 +1260,98 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="3">
-        <v>2235</v>
+        <v>2299</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D49" s="4">
-        <v>41962.4687615741</v>
+        <v>41963.4146527778</v>
       </c>
       <c r="E49" s="5">
         <v>3</v>
       </c>
       <c r="F49" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="3">
-        <v>2236</v>
+        <v>2300</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" s="4">
-        <v>41962.4688773148</v>
+        <v>41963.4147337963</v>
       </c>
       <c r="E50" s="5">
         <v>3</v>
       </c>
       <c r="F50" s="5">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="3">
-        <v>2237</v>
+        <v>2301</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D51" s="4">
-        <v>41962.4690393519</v>
+        <v>41963.414837963</v>
       </c>
       <c r="E51" s="5">
         <v>3</v>
       </c>
       <c r="F51" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="3">
-        <v>2238</v>
+        <v>2302</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52" s="4">
-        <v>41962.4691203704</v>
+        <v>41963.4149189815</v>
       </c>
       <c r="E52" s="5">
         <v>3</v>
       </c>
       <c r="F52" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="3">
-        <v>2239</v>
+        <v>2303</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D53" s="4">
-        <v>41962.4691898148</v>
+        <v>41963.4149652778</v>
       </c>
       <c r="E53" s="5">
         <v>3</v>
       </c>
       <c r="F53" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="3">
-        <v>2240</v>
+        <v>2304</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54" s="4">
-        <v>41962.4692939815</v>
+        <v>41963.4151041667</v>
       </c>
       <c r="E54" s="5">
         <v>3</v>
@@ -1353,13 +1362,13 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="3">
-        <v>2241</v>
+        <v>2305</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55" s="4">
-        <v>41962.4693402778</v>
+        <v>41963.4152083333</v>
       </c>
       <c r="E55" s="5">
         <v>3</v>
@@ -1370,81 +1379,81 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="3">
-        <v>2242</v>
+        <v>2306</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D56" s="4">
-        <v>41962.4694097222</v>
+        <v>41963.4152662037</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
       </c>
       <c r="F56" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="3">
-        <v>2243</v>
+        <v>2307</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4">
-        <v>41962.469537037</v>
+        <v>41963.4153703704</v>
       </c>
       <c r="E57" s="5">
         <v>3</v>
       </c>
       <c r="F57" s="5">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="3">
-        <v>2244</v>
+        <v>2308</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="4">
-        <v>41962.4697916667</v>
+        <v>41963.4180324074</v>
       </c>
       <c r="E58" s="5">
         <v>3</v>
       </c>
       <c r="F58" s="5">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="3">
-        <v>2245</v>
+        <v>2309</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="4">
-        <v>41962.4698726852</v>
+        <v>41963.4183564815</v>
       </c>
       <c r="E59" s="5">
         <v>3</v>
       </c>
       <c r="F59" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="3">
-        <v>2246</v>
+        <v>2310</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="4">
-        <v>41962.4699884259</v>
+        <v>41963.4185532407</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
@@ -1455,171 +1464,528 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="3">
-        <v>2247</v>
+        <v>2311</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="4">
-        <v>41962.4701041667</v>
+        <v>41963.4189351852</v>
       </c>
       <c r="E61" s="5">
         <v>3</v>
       </c>
       <c r="F61" s="5">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="3">
-        <v>2248</v>
+        <v>2312</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="4">
-        <v>41962.4701967593</v>
+        <v>41963.4192939815</v>
       </c>
       <c r="E62" s="5">
         <v>3</v>
       </c>
       <c r="F62" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="3">
-        <v>2249</v>
+        <v>2313</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="4">
-        <v>41962.4702314815</v>
+        <v>41963.4195833333</v>
       </c>
       <c r="E63" s="5">
         <v>3</v>
       </c>
       <c r="F63" s="5">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="3">
-        <v>2250</v>
+        <v>2314</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="4">
-        <v>41962.4703125</v>
+        <v>41963.4197106482</v>
       </c>
       <c r="E64" s="5">
         <v>3</v>
       </c>
       <c r="F64" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="3">
-        <v>2251</v>
+        <v>2315</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="4">
-        <v>41962.4703935185</v>
+        <v>41963.4199884259</v>
       </c>
       <c r="E65" s="5">
         <v>3</v>
       </c>
       <c r="F65" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="3">
-        <v>2252</v>
+        <v>2316</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="4">
-        <v>41962.4705208333</v>
+        <v>41963.4201273148</v>
       </c>
       <c r="E66" s="5">
         <v>3</v>
       </c>
       <c r="F66" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="3">
-        <v>2253</v>
+        <v>2317</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="4">
-        <v>41962.4708449074</v>
+        <v>41963.4201967593</v>
       </c>
       <c r="E67" s="5">
         <v>3</v>
       </c>
       <c r="F67" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="3">
-        <v>2254</v>
+        <v>2318</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="4">
-        <v>41962.4888310185</v>
+        <v>41963.4202777778</v>
       </c>
       <c r="E68" s="5">
         <v>3</v>
       </c>
       <c r="F68" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="3">
-        <v>2255</v>
+        <v>2319</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="4">
-        <v>41962.540162037</v>
+        <v>41963.4203587963</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
       </c>
       <c r="F69" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="3">
-        <v>2256</v>
+        <v>2320</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="4">
-        <v>41962.6522800926</v>
+        <v>41963.4203935185</v>
       </c>
       <c r="E70" s="5">
         <v>3</v>
       </c>
       <c r="F70" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="3">
+        <v>2321</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4">
+        <v>41963.4204976852</v>
+      </c>
+      <c r="E71" s="5">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="3">
+        <v>2322</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="4">
+        <v>41963.4206018519</v>
+      </c>
+      <c r="E72" s="5">
+        <v>3</v>
+      </c>
+      <c r="F72" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="3">
+        <v>2323</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="4">
+        <v>41963.4206597222</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3</v>
+      </c>
+      <c r="F73" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="3">
+        <v>2324</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="4">
+        <v>41963.4207175926</v>
+      </c>
+      <c r="E74" s="5">
+        <v>3</v>
+      </c>
+      <c r="F74" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="3">
+        <v>2325</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="4">
+        <v>41963.4208449074</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3</v>
+      </c>
+      <c r="F75" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="3">
+        <v>2326</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="4">
+        <v>41963.4209375</v>
+      </c>
+      <c r="E76" s="5">
+        <v>3</v>
+      </c>
+      <c r="F76" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="3">
+        <v>2327</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="4">
+        <v>41963.4209722222</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3</v>
+      </c>
+      <c r="F77" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="3">
+        <v>2328</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="4">
+        <v>41963.4210069444</v>
+      </c>
+      <c r="E78" s="5">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="3">
+        <v>2329</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="4">
+        <v>41963.4211574074</v>
+      </c>
+      <c r="E79" s="5">
+        <v>3</v>
+      </c>
+      <c r="F79" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="3">
+        <v>2330</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="4">
+        <v>41963.421400463</v>
+      </c>
+      <c r="E80" s="5">
+        <v>3</v>
+      </c>
+      <c r="F80" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="3">
+        <v>2331</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="4">
+        <v>41963.4214467593</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3</v>
+      </c>
+      <c r="F81" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="3">
+        <v>2332</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="4">
+        <v>41963.4215046296</v>
+      </c>
+      <c r="E82" s="5">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="3">
+        <v>2333</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4">
+        <v>41963.4215740741</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3</v>
+      </c>
+      <c r="F83" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="3">
+        <v>2334</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="4">
+        <v>41963.4216087963</v>
+      </c>
+      <c r="E84" s="5">
+        <v>3</v>
+      </c>
+      <c r="F84" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="3">
+        <v>2335</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="4">
+        <v>41963.4216666667</v>
+      </c>
+      <c r="E85" s="5">
+        <v>3</v>
+      </c>
+      <c r="F85" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="3">
+        <v>2336</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="4">
+        <v>41963.4217592593</v>
+      </c>
+      <c r="E86" s="5">
+        <v>3</v>
+      </c>
+      <c r="F86" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="3">
+        <v>2337</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="4">
+        <v>41963.4218518519</v>
+      </c>
+      <c r="E87" s="5">
+        <v>3</v>
+      </c>
+      <c r="F87" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="3">
+        <v>2338</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="4">
+        <v>41963.4219675926</v>
+      </c>
+      <c r="E88" s="5">
+        <v>3</v>
+      </c>
+      <c r="F88" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="3">
+        <v>2339</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="4">
+        <v>41963.4220601852</v>
+      </c>
+      <c r="E89" s="5">
+        <v>3</v>
+      </c>
+      <c r="F89" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="3">
+        <v>2340</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="4">
+        <v>41963.4221990741</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3</v>
+      </c>
+      <c r="F90" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="3">
+        <v>2341</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="4">
+        <v>41963.4224074074</v>
+      </c>
+      <c r="E91" s="5">
+        <v>3</v>
+      </c>
+      <c r="F91" s="5">
         <v>3</v>
       </c>
     </row>
